--- a/data/trans_orig/P75_M_2012-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P75_M_2012-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D952E2D3-3584-4634-87D4-6DA4F358D23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F15B652B-25B2-4041-BBC5-3977E1C4B274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4D6C64F3-0DAF-4A16-8AEA-113E65A4A163}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C277371B-E229-4E37-9475-7A5C20263B3F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -101,1294 +101,1285 @@
     <t>0,2%</t>
   </si>
   <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
     <t>2,82%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
     <t>4,06%</t>
   </si>
   <si>
-    <t>4,86%</t>
-  </si>
-  <si>
     <t>3,55%</t>
   </si>
   <si>
+    <t>2,99%</t>
+  </si>
+  <si>
     <t>3,8%</t>
   </si>
   <si>
+    <t>4,31%</t>
+  </si>
+  <si>
     <t>14,29%</t>
   </si>
   <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
   </si>
   <si>
     <t>11,13%</t>
   </si>
   <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
   </si>
   <si>
     <t>12,68%</t>
@@ -1397,73 +1388,82 @@
     <t>11,87%</t>
   </si>
   <si>
-    <t>13,56%</t>
+    <t>13,58%</t>
   </si>
   <si>
     <t>23,93%</t>
   </si>
   <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
   </si>
   <si>
     <t>23,1%</t>
   </si>
   <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
   </si>
   <si>
     <t>23,5%</t>
   </si>
   <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
   </si>
   <si>
     <t>38,03%</t>
   </si>
   <si>
-    <t>39,78%</t>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
   </si>
   <si>
     <t>40,84%</t>
   </si>
   <si>
-    <t>39,19%</t>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
   </si>
   <si>
     <t>39,46%</t>
   </si>
   <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
   </si>
   <si>
     <t>15,08%</t>
   </si>
   <si>
-    <t>13,9%</t>
+    <t>13,84%</t>
   </si>
   <si>
     <t>17,77%</t>
   </si>
   <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1878,7 +1878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A8EE01-F2AD-4A60-9105-5DC518BAA982}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD111A83-E75F-421C-88A0-6BFCCD3B1719}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2807,10 +2807,10 @@
         <v>90</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2825,13 +2825,13 @@
         <v>10501</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -2840,13 +2840,13 @@
         <v>7523</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M21" s="7">
         <v>16</v>
@@ -2855,13 +2855,13 @@
         <v>18023</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,13 +2876,13 @@
         <v>11459</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -2891,13 +2891,13 @@
         <v>11808</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -2906,7 +2906,7 @@
         <v>23268</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>107</v>
@@ -2942,13 +2942,13 @@
         <v>35478</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M23" s="7">
         <v>86</v>
@@ -2957,13 +2957,13 @@
         <v>87166</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,13 +2978,13 @@
         <v>45595</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H24" s="7">
         <v>31</v>
@@ -2993,13 +2993,13 @@
         <v>32576</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M24" s="7">
         <v>77</v>
@@ -3008,13 +3008,13 @@
         <v>78171</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,13 +3029,13 @@
         <v>137706</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H25" s="7">
         <v>163</v>
@@ -3044,13 +3044,13 @@
         <v>175634</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M25" s="7">
         <v>296</v>
@@ -3059,13 +3059,13 @@
         <v>313340</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,13 +3080,13 @@
         <v>59432</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H26" s="7">
         <v>66</v>
@@ -3095,13 +3095,13 @@
         <v>71024</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M26" s="7">
         <v>123</v>
@@ -3110,13 +3110,13 @@
         <v>130456</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,7 +3172,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3184,7 +3184,7 @@
         <v>10832</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>146</v>
@@ -3202,10 +3202,10 @@
         <v>148</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M28" s="7">
         <v>20</v>
@@ -3217,10 +3217,10 @@
         <v>150</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,13 +3235,13 @@
         <v>24647</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H29" s="7">
         <v>18</v>
@@ -3250,13 +3250,13 @@
         <v>18686</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M29" s="7">
         <v>41</v>
@@ -3265,13 +3265,13 @@
         <v>43332</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,13 +3286,13 @@
         <v>23728</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H30" s="7">
         <v>19</v>
@@ -3301,10 +3301,10 @@
         <v>18954</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>165</v>
@@ -3316,7 +3316,7 @@
         <v>42682</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>166</v>
@@ -3337,13 +3337,13 @@
         <v>70421</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H31" s="7">
         <v>58</v>
@@ -3352,13 +3352,13 @@
         <v>65908</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>49</v>
+        <v>172</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M31" s="7">
         <v>126</v>
@@ -3367,13 +3367,13 @@
         <v>136329</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3388,13 +3388,13 @@
         <v>132856</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H32" s="7">
         <v>123</v>
@@ -3403,13 +3403,13 @@
         <v>134277</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M32" s="7">
         <v>248</v>
@@ -3418,13 +3418,13 @@
         <v>267133</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,13 +3439,13 @@
         <v>266793</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H33" s="7">
         <v>236</v>
@@ -3454,13 +3454,13 @@
         <v>253597</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M33" s="7">
         <v>485</v>
@@ -3469,13 +3469,13 @@
         <v>520391</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,13 +3490,13 @@
         <v>121960</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H34" s="7">
         <v>143</v>
@@ -3505,13 +3505,13 @@
         <v>150705</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M34" s="7">
         <v>257</v>
@@ -3520,13 +3520,13 @@
         <v>272665</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,7 +3582,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -3594,13 +3594,13 @@
         <v>2936</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3609,13 +3609,13 @@
         <v>1728</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M36" s="7">
         <v>3</v>
@@ -3624,13 +3624,13 @@
         <v>4664</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,13 +3645,13 @@
         <v>3033</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
@@ -3660,13 +3660,13 @@
         <v>2881</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="M37" s="7">
         <v>6</v>
@@ -3675,13 +3675,13 @@
         <v>5914</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,13 +3696,13 @@
         <v>8276</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
@@ -3711,13 +3711,13 @@
         <v>4813</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>35</v>
+        <v>224</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M38" s="7">
         <v>11</v>
@@ -3726,13 +3726,13 @@
         <v>13089</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,13 +3747,13 @@
         <v>44418</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H39" s="7">
         <v>36</v>
@@ -3762,13 +3762,13 @@
         <v>37409</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M39" s="7">
         <v>76</v>
@@ -3777,13 +3777,13 @@
         <v>81827</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,13 +3798,13 @@
         <v>65451</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H40" s="7">
         <v>57</v>
@@ -3813,13 +3813,13 @@
         <v>58728</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M40" s="7">
         <v>119</v>
@@ -3828,13 +3828,13 @@
         <v>124178</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3849,13 @@
         <v>60951</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H41" s="7">
         <v>78</v>
@@ -3864,13 +3864,13 @@
         <v>80779</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M41" s="7">
         <v>134</v>
@@ -3879,13 +3879,13 @@
         <v>141730</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,13 +3900,13 @@
         <v>25387</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>252</v>
+        <v>53</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H42" s="7">
         <v>30</v>
@@ -3915,13 +3915,13 @@
         <v>30400</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M42" s="7">
         <v>54</v>
@@ -3930,13 +3930,13 @@
         <v>55787</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,7 +3992,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
@@ -4004,13 +4004,13 @@
         <v>8208</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H44" s="7">
         <v>3</v>
@@ -4019,13 +4019,13 @@
         <v>2853</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M44" s="7">
         <v>9</v>
@@ -4034,13 +4034,13 @@
         <v>11061</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>267</v>
+        <v>36</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,13 +4055,13 @@
         <v>9622</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>157</v>
+        <v>272</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H45" s="7">
         <v>1</v>
@@ -4070,13 +4070,13 @@
         <v>1740</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M45" s="7">
         <v>11</v>
@@ -4085,13 +4085,13 @@
         <v>11362</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>33</v>
+        <v>276</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,13 +4106,13 @@
         <v>4794</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H46" s="7">
         <v>6</v>
@@ -4121,13 +4121,13 @@
         <v>7451</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>206</v>
+        <v>281</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M46" s="7">
         <v>11</v>
@@ -4136,13 +4136,13 @@
         <v>12245</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>206</v>
+        <v>34</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4157,13 @@
         <v>35195</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H47" s="7">
         <v>21</v>
@@ -4172,13 +4172,13 @@
         <v>21130</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M47" s="7">
         <v>56</v>
@@ -4187,13 +4187,13 @@
         <v>56325</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>288</v>
+        <v>53</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,13 +4208,13 @@
         <v>40536</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>291</v>
+        <v>168</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H48" s="7">
         <v>30</v>
@@ -4223,13 +4223,13 @@
         <v>30952</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M48" s="7">
         <v>66</v>
@@ -4238,13 +4238,13 @@
         <v>71488</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,13 +4259,13 @@
         <v>102929</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H49" s="7">
         <v>127</v>
@@ -4274,13 +4274,13 @@
         <v>133697</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>302</v>
+        <v>134</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M49" s="7">
         <v>226</v>
@@ -4289,13 +4289,13 @@
         <v>236626</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,13 +4310,13 @@
         <v>68679</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H50" s="7">
         <v>72</v>
@@ -4325,13 +4325,13 @@
         <v>73493</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M50" s="7">
         <v>138</v>
@@ -4340,13 +4340,13 @@
         <v>142173</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,7 +4402,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>10</v>
@@ -4414,13 +4414,13 @@
         <v>14551</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H52" s="7">
         <v>11</v>
@@ -4429,13 +4429,13 @@
         <v>12677</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>319</v>
+        <v>272</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>106</v>
+        <v>322</v>
       </c>
       <c r="M52" s="7">
         <v>23</v>
@@ -4444,13 +4444,13 @@
         <v>27228</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>90</v>
+        <v>324</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,13 +4465,13 @@
         <v>17687</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>323</v>
+        <v>94</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H53" s="7">
         <v>18</v>
@@ -4480,13 +4480,13 @@
         <v>20470</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>326</v>
+        <v>24</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M53" s="7">
         <v>36</v>
@@ -4495,13 +4495,13 @@
         <v>38157</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,13 +4516,13 @@
         <v>41336</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H54" s="7">
         <v>27</v>
@@ -4531,10 +4531,10 @@
         <v>28619</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>334</v>
+        <v>211</v>
       </c>
       <c r="L54" s="7" t="s">
         <v>335</v>
@@ -4546,13 +4546,13 @@
         <v>69956</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="P54" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,13 +4567,13 @@
         <v>90803</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H55" s="7">
         <v>62</v>
@@ -4582,13 +4582,13 @@
         <v>69066</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M55" s="7">
         <v>146</v>
@@ -4597,13 +4597,13 @@
         <v>159869</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4618,13 +4618,13 @@
         <v>123275</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H56" s="7">
         <v>129</v>
@@ -4633,13 +4633,13 @@
         <v>144126</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="M56" s="7">
         <v>242</v>
@@ -4648,13 +4648,13 @@
         <v>267401</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,13 +4669,13 @@
         <v>274456</v>
       </c>
       <c r="E57" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F57" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="G57" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="H57" s="7">
         <v>256</v>
@@ -4684,13 +4684,13 @@
         <v>273233</v>
       </c>
       <c r="J57" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L57" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="K57" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="M57" s="7">
         <v>517</v>
@@ -4699,13 +4699,13 @@
         <v>547688</v>
       </c>
       <c r="O57" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q57" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="P57" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q57" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,13 +4720,13 @@
         <v>80397</v>
       </c>
       <c r="E58" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="H58" s="7">
         <v>116</v>
@@ -4735,13 +4735,13 @@
         <v>126548</v>
       </c>
       <c r="J58" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="L58" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="M58" s="7">
         <v>192</v>
@@ -4750,13 +4750,13 @@
         <v>206945</v>
       </c>
       <c r="O58" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q58" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="P58" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q58" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,7 +4812,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>10</v>
@@ -4824,13 +4824,13 @@
         <v>15971</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>33</v>
+        <v>276</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>87</v>
+        <v>373</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H60" s="7">
         <v>16</v>
@@ -4839,13 +4839,13 @@
         <v>18707</v>
       </c>
       <c r="J60" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="L60" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="L60" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M60" s="7">
         <v>30</v>
@@ -4854,13 +4854,13 @@
         <v>34678</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>163</v>
+        <v>377</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>378</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4875,13 +4875,13 @@
         <v>19684</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>380</v>
+        <v>84</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>381</v>
+        <v>334</v>
       </c>
       <c r="H61" s="7">
         <v>15</v>
@@ -4890,13 +4890,13 @@
         <v>17146</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>33</v>
+        <v>276</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M61" s="7">
         <v>31</v>
@@ -4905,13 +4905,13 @@
         <v>36830</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>166</v>
+        <v>381</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>273</v>
+        <v>383</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4926,7 +4926,7 @@
         <v>29682</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>318</v>
+        <v>384</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>385</v>
@@ -4959,10 +4959,10 @@
         <v>390</v>
       </c>
       <c r="P62" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q62" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="Q62" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +4977,13 @@
         <v>128410</v>
       </c>
       <c r="E63" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F63" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="G63" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="H63" s="7">
         <v>111</v>
@@ -4992,13 +4992,13 @@
         <v>117924</v>
       </c>
       <c r="J63" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K63" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="K63" s="7" t="s">
+      <c r="L63" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="L63" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="M63" s="7">
         <v>234</v>
@@ -5007,13 +5007,13 @@
         <v>246333</v>
       </c>
       <c r="O63" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="P63" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="P63" s="7" t="s">
+      <c r="Q63" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="Q63" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +5028,13 @@
         <v>284420</v>
       </c>
       <c r="E64" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="G64" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="H64" s="7">
         <v>266</v>
@@ -5043,13 +5043,13 @@
         <v>287549</v>
       </c>
       <c r="J64" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K64" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="K64" s="7" t="s">
+      <c r="L64" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="L64" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="M64" s="7">
         <v>525</v>
@@ -5058,7 +5058,7 @@
         <v>571969</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>360</v>
+        <v>407</v>
       </c>
       <c r="P64" s="7" t="s">
         <v>408</v>
@@ -5115,7 +5115,7 @@
         <v>417</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>418</v>
+        <v>251</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,13 +5130,13 @@
         <v>62605</v>
       </c>
       <c r="E66" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F66" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="G66" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="H66" s="7">
         <v>63</v>
@@ -5145,13 +5145,13 @@
         <v>69150</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>47</v>
+        <v>421</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>422</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>115</v>
+        <v>423</v>
       </c>
       <c r="M66" s="7">
         <v>118</v>
@@ -5160,13 +5160,13 @@
         <v>131754</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5234,13 +5234,13 @@
         <v>61473</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>326</v>
+        <v>427</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H68" s="7">
         <v>48</v>
@@ -5249,13 +5249,13 @@
         <v>54148</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M68" s="7">
         <v>100</v>
@@ -5264,13 +5264,13 @@
         <v>115621</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>432</v>
+        <v>205</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>433</v>
+        <v>323</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5288,10 +5288,10 @@
         <v>434</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>435</v>
+        <v>107</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>436</v>
+        <v>104</v>
       </c>
       <c r="H69" s="7">
         <v>63</v>
@@ -5300,13 +5300,13 @@
         <v>71378</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>384</v>
+        <v>435</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>437</v>
+        <v>151</v>
       </c>
       <c r="M69" s="7">
         <v>150</v>
@@ -5315,13 +5315,13 @@
         <v>164482</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,13 +5336,13 @@
         <v>136040</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>442</v>
+        <v>42</v>
       </c>
       <c r="H70" s="7">
         <v>114</v>
@@ -5351,10 +5351,10 @@
         <v>123631</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>266</v>
+        <v>439</v>
       </c>
       <c r="L70" s="7" t="s">
         <v>390</v>
@@ -5366,13 +5366,13 @@
         <v>259671</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>436</v>
+        <v>158</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>45</v>
+        <v>441</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,13 +5387,13 @@
         <v>478395</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H71" s="7">
         <v>357</v>
@@ -5402,13 +5402,13 @@
         <v>387386</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="M71" s="7">
         <v>813</v>
@@ -5417,13 +5417,13 @@
         <v>865780</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,13 +5438,13 @@
         <v>801139</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H72" s="7">
         <v>742</v>
@@ -5453,13 +5453,13 @@
         <v>803552</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="M72" s="7">
         <v>1485</v>
@@ -5468,13 +5468,13 @@
         <v>1604691</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,13 +5489,13 @@
         <v>1273206</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>360</v>
+        <v>461</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H73" s="7">
         <v>1321</v>
@@ -5504,13 +5504,13 @@
         <v>1420891</v>
       </c>
       <c r="J73" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="L73" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="K73" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="L73" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M73" s="7">
         <v>2520</v>
@@ -5519,13 +5519,13 @@
         <v>2694097</v>
       </c>
       <c r="O73" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="P73" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="P73" s="7" t="s">
+      <c r="Q73" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="Q73" s="7" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5540,13 +5540,13 @@
         <v>504784</v>
       </c>
       <c r="E74" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="F74" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="F74" s="7" t="s">
-        <v>471</v>
-      </c>
       <c r="G74" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="H74" s="7">
         <v>581</v>
@@ -5555,10 +5555,10 @@
         <v>618051</v>
       </c>
       <c r="J74" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="K74" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="K74" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="L74" s="7" t="s">
         <v>473</v>
@@ -5570,7 +5570,7 @@
         <v>1122836</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>139</v>
+        <v>261</v>
       </c>
       <c r="P74" s="7" t="s">
         <v>474</v>

--- a/data/trans_orig/P75_M_2012-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P75_M_2012-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F15B652B-25B2-4041-BBC5-3977E1C4B274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9181A58F-2FF5-45B6-99B1-4407B1058AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C277371B-E229-4E37-9475-7A5C20263B3F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4378382F-3463-4844-A531-DF28A639D922}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="489">
   <si>
     <t>Población según el nivel de estudios de su madre cuando tenían 12 años en 2012 (Tasa respuesta: 97,79%)</t>
   </si>
@@ -101,7 +101,7 @@
     <t>0,2%</t>
   </si>
   <si>
-    <t>2,52%</t>
+    <t>2,67%</t>
   </si>
   <si>
     <t>0,62%</t>
@@ -110,7 +110,7 @@
     <t>0,19%</t>
   </si>
   <si>
-    <t>1,87%</t>
+    <t>1,78%</t>
   </si>
   <si>
     <t>0,74%</t>
@@ -119,1351 +119,1387 @@
     <t>0,32%</t>
   </si>
   <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
   </si>
   <si>
     <t>2,3%</t>
   </si>
   <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
   </si>
   <si>
     <t>19,13%</t>
   </si>
   <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
     <t>16,45%</t>
   </si>
   <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
+    <t>17,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1878,7 +1914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD111A83-E75F-421C-88A0-6BFCCD3B1719}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED5D91B-2D41-4A87-A7F2-89B2DB73F2E7}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2879,10 +2915,10 @@
         <v>102</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -2891,10 +2927,10 @@
         <v>11808</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>106</v>
@@ -2906,13 +2942,13 @@
         <v>23268</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,13 +2963,13 @@
         <v>51688</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H23" s="7">
         <v>33</v>
@@ -2942,13 +2978,13 @@
         <v>35478</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M23" s="7">
         <v>86</v>
@@ -2957,13 +2993,13 @@
         <v>87166</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,13 +3014,13 @@
         <v>45595</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H24" s="7">
         <v>31</v>
@@ -2993,13 +3029,13 @@
         <v>32576</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M24" s="7">
         <v>77</v>
@@ -3008,13 +3044,13 @@
         <v>78171</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,13 +3065,13 @@
         <v>137706</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H25" s="7">
         <v>163</v>
@@ -3044,13 +3080,13 @@
         <v>175634</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M25" s="7">
         <v>296</v>
@@ -3059,13 +3095,13 @@
         <v>313340</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,13 +3116,13 @@
         <v>59432</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H26" s="7">
         <v>66</v>
@@ -3095,13 +3131,13 @@
         <v>71024</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M26" s="7">
         <v>123</v>
@@ -3110,13 +3146,13 @@
         <v>130456</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,7 +3208,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3184,13 +3220,13 @@
         <v>10832</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H28" s="7">
         <v>10</v>
@@ -3199,13 +3235,13 @@
         <v>11131</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>149</v>
+        <v>19</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M28" s="7">
         <v>20</v>
@@ -3214,13 +3250,13 @@
         <v>21963</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,13 +3271,13 @@
         <v>24647</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H29" s="7">
         <v>18</v>
@@ -3250,13 +3286,13 @@
         <v>18686</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M29" s="7">
         <v>41</v>
@@ -3265,13 +3301,13 @@
         <v>43332</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,13 +3322,13 @@
         <v>23728</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H30" s="7">
         <v>19</v>
@@ -3301,13 +3337,13 @@
         <v>18954</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M30" s="7">
         <v>40</v>
@@ -3319,10 +3355,10 @@
         <v>93</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,13 +3373,13 @@
         <v>70421</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H31" s="7">
         <v>58</v>
@@ -3352,13 +3388,13 @@
         <v>65908</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M31" s="7">
         <v>126</v>
@@ -3367,13 +3403,13 @@
         <v>136329</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3388,13 +3424,13 @@
         <v>132856</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H32" s="7">
         <v>123</v>
@@ -3403,13 +3439,13 @@
         <v>134277</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M32" s="7">
         <v>248</v>
@@ -3418,13 +3454,13 @@
         <v>267133</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,13 +3475,13 @@
         <v>266793</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H33" s="7">
         <v>236</v>
@@ -3454,13 +3490,13 @@
         <v>253597</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M33" s="7">
         <v>485</v>
@@ -3469,13 +3505,13 @@
         <v>520391</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,13 +3526,13 @@
         <v>121960</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H34" s="7">
         <v>143</v>
@@ -3505,13 +3541,13 @@
         <v>150705</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M34" s="7">
         <v>257</v>
@@ -3520,13 +3556,13 @@
         <v>272665</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,7 +3618,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -3594,13 +3630,13 @@
         <v>2936</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3609,13 +3645,13 @@
         <v>1728</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M36" s="7">
         <v>3</v>
@@ -3624,13 +3660,13 @@
         <v>4664</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,13 +3732,13 @@
         <v>8276</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
@@ -3711,13 +3747,13 @@
         <v>4813</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M38" s="7">
         <v>11</v>
@@ -3726,10 +3762,10 @@
         <v>13089</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>227</v>
+        <v>100</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>228</v>
@@ -3750,10 +3786,10 @@
         <v>229</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H39" s="7">
         <v>36</v>
@@ -3762,13 +3798,13 @@
         <v>37409</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M39" s="7">
         <v>76</v>
@@ -3777,13 +3813,13 @@
         <v>81827</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,13 +3834,13 @@
         <v>65451</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H40" s="7">
         <v>57</v>
@@ -3813,13 +3849,13 @@
         <v>58728</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M40" s="7">
         <v>119</v>
@@ -3828,13 +3864,13 @@
         <v>124178</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3885,13 @@
         <v>60951</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H41" s="7">
         <v>78</v>
@@ -3864,13 +3900,13 @@
         <v>80779</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M41" s="7">
         <v>134</v>
@@ -3879,13 +3915,13 @@
         <v>141730</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,13 +3936,13 @@
         <v>25387</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>53</v>
+        <v>257</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H42" s="7">
         <v>30</v>
@@ -3915,13 +3951,13 @@
         <v>30400</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M42" s="7">
         <v>54</v>
@@ -3930,13 +3966,13 @@
         <v>55787</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,7 +4028,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
@@ -4004,13 +4040,13 @@
         <v>8208</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>263</v>
+        <v>149</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H44" s="7">
         <v>3</v>
@@ -4019,13 +4055,13 @@
         <v>2853</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M44" s="7">
         <v>9</v>
@@ -4034,13 +4070,13 @@
         <v>11061</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,13 +4091,13 @@
         <v>9622</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H45" s="7">
         <v>1</v>
@@ -4070,13 +4106,13 @@
         <v>1740</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M45" s="7">
         <v>11</v>
@@ -4085,13 +4121,13 @@
         <v>11362</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,13 +4142,13 @@
         <v>4794</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H46" s="7">
         <v>6</v>
@@ -4121,13 +4157,13 @@
         <v>7451</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>281</v>
+        <v>210</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M46" s="7">
         <v>11</v>
@@ -4136,13 +4172,13 @@
         <v>12245</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4193,13 @@
         <v>35195</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H47" s="7">
         <v>21</v>
@@ -4172,13 +4208,13 @@
         <v>21130</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M47" s="7">
         <v>56</v>
@@ -4187,13 +4223,13 @@
         <v>56325</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>53</v>
+        <v>294</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,13 +4244,13 @@
         <v>40536</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>168</v>
+        <v>297</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H48" s="7">
         <v>30</v>
@@ -4223,13 +4259,13 @@
         <v>30952</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M48" s="7">
         <v>66</v>
@@ -4238,13 +4274,13 @@
         <v>71488</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,13 +4295,13 @@
         <v>102929</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H49" s="7">
         <v>127</v>
@@ -4274,13 +4310,13 @@
         <v>133697</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>134</v>
+        <v>309</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="M49" s="7">
         <v>226</v>
@@ -4289,13 +4325,13 @@
         <v>236626</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,13 +4346,13 @@
         <v>68679</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H50" s="7">
         <v>72</v>
@@ -4325,13 +4361,13 @@
         <v>73493</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="M50" s="7">
         <v>138</v>
@@ -4340,13 +4376,13 @@
         <v>142173</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,7 +4438,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>10</v>
@@ -4414,13 +4450,13 @@
         <v>14551</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H52" s="7">
         <v>11</v>
@@ -4429,13 +4465,13 @@
         <v>12677</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="M52" s="7">
         <v>23</v>
@@ -4444,13 +4480,13 @@
         <v>27228</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,13 +4501,13 @@
         <v>17687</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="H53" s="7">
         <v>18</v>
@@ -4480,13 +4516,13 @@
         <v>20470</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>24</v>
+        <v>334</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="M53" s="7">
         <v>36</v>
@@ -4495,13 +4531,13 @@
         <v>38157</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>329</v>
+        <v>36</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,13 +4552,13 @@
         <v>41336</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="H54" s="7">
         <v>27</v>
@@ -4531,13 +4567,13 @@
         <v>28619</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>211</v>
+        <v>341</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>335</v>
+        <v>106</v>
       </c>
       <c r="M54" s="7">
         <v>64</v>
@@ -4546,13 +4582,13 @@
         <v>69956</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,13 +4603,13 @@
         <v>90803</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="H55" s="7">
         <v>62</v>
@@ -4582,13 +4618,13 @@
         <v>69066</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="M55" s="7">
         <v>146</v>
@@ -4597,13 +4633,13 @@
         <v>159869</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4618,13 +4654,13 @@
         <v>123275</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H56" s="7">
         <v>129</v>
@@ -4633,13 +4669,13 @@
         <v>144126</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="M56" s="7">
         <v>242</v>
@@ -4648,13 +4684,13 @@
         <v>267401</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,13 +4705,13 @@
         <v>274456</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="H57" s="7">
         <v>256</v>
@@ -4684,13 +4720,13 @@
         <v>273233</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>187</v>
+        <v>365</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="M57" s="7">
         <v>517</v>
@@ -4699,13 +4735,13 @@
         <v>547688</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,13 +4756,13 @@
         <v>80397</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>363</v>
+        <v>233</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="H58" s="7">
         <v>116</v>
@@ -4735,13 +4771,13 @@
         <v>126548</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="M58" s="7">
         <v>192</v>
@@ -4750,13 +4786,13 @@
         <v>206945</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>369</v>
+        <v>301</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,7 +4848,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>10</v>
@@ -4824,13 +4860,13 @@
         <v>15971</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>373</v>
+        <v>34</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>374</v>
+        <v>163</v>
       </c>
       <c r="H60" s="7">
         <v>16</v>
@@ -4839,13 +4875,13 @@
         <v>18707</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>33</v>
+        <v>378</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>375</v>
+        <v>215</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M60" s="7">
         <v>30</v>
@@ -4854,13 +4890,13 @@
         <v>34678</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>220</v>
+        <v>381</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4875,13 +4911,13 @@
         <v>19684</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>84</v>
+        <v>222</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>334</v>
+        <v>383</v>
       </c>
       <c r="H61" s="7">
         <v>15</v>
@@ -4890,13 +4926,13 @@
         <v>17146</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="M61" s="7">
         <v>31</v>
@@ -4905,13 +4941,13 @@
         <v>36830</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4926,13 +4962,13 @@
         <v>29682</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>385</v>
+        <v>99</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H62" s="7">
         <v>34</v>
@@ -4941,13 +4977,13 @@
         <v>37336</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="M62" s="7">
         <v>64</v>
@@ -4956,13 +4992,13 @@
         <v>67018</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>86</v>
+        <v>328</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +5013,13 @@
         <v>128410</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="H63" s="7">
         <v>111</v>
@@ -4992,13 +5028,13 @@
         <v>117924</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M63" s="7">
         <v>234</v>
@@ -5007,13 +5043,13 @@
         <v>246333</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +5064,13 @@
         <v>284420</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="H64" s="7">
         <v>266</v>
@@ -5043,13 +5079,13 @@
         <v>287549</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M64" s="7">
         <v>525</v>
@@ -5058,13 +5094,13 @@
         <v>571969</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,13 +5115,13 @@
         <v>219676</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="H65" s="7">
         <v>244</v>
@@ -5094,13 +5130,13 @@
         <v>267020</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="M65" s="7">
         <v>446</v>
@@ -5109,13 +5145,13 @@
         <v>486696</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>251</v>
+        <v>421</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,13 +5166,13 @@
         <v>62605</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H66" s="7">
         <v>63</v>
@@ -5145,13 +5181,13 @@
         <v>69150</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="M66" s="7">
         <v>118</v>
@@ -5160,13 +5196,13 @@
         <v>131754</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5234,13 +5270,13 @@
         <v>61473</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>428</v>
+        <v>218</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="H68" s="7">
         <v>48</v>
@@ -5249,13 +5285,13 @@
         <v>54148</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>432</v>
+        <v>329</v>
       </c>
       <c r="M68" s="7">
         <v>100</v>
@@ -5264,13 +5300,13 @@
         <v>115621</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,13 +5321,13 @@
         <v>93103</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>107</v>
+        <v>437</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>104</v>
+        <v>438</v>
       </c>
       <c r="H69" s="7">
         <v>63</v>
@@ -5300,13 +5336,13 @@
         <v>71378</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>151</v>
+        <v>441</v>
       </c>
       <c r="M69" s="7">
         <v>150</v>
@@ -5315,13 +5351,13 @@
         <v>164482</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,13 +5372,13 @@
         <v>136040</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>37</v>
+        <v>388</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>42</v>
+        <v>446</v>
       </c>
       <c r="H70" s="7">
         <v>114</v>
@@ -5351,13 +5387,13 @@
         <v>123631</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>390</v>
+        <v>449</v>
       </c>
       <c r="M70" s="7">
         <v>240</v>
@@ -5366,13 +5402,13 @@
         <v>259671</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>158</v>
+        <v>451</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,13 +5423,13 @@
         <v>478395</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="H71" s="7">
         <v>357</v>
@@ -5402,13 +5438,13 @@
         <v>387386</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="M71" s="7">
         <v>813</v>
@@ -5417,13 +5453,13 @@
         <v>865780</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,13 +5474,13 @@
         <v>801139</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="H72" s="7">
         <v>742</v>
@@ -5453,13 +5489,13 @@
         <v>803552</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="M72" s="7">
         <v>1485</v>
@@ -5468,13 +5504,13 @@
         <v>1604691</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,13 +5525,13 @@
         <v>1273206</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="H73" s="7">
         <v>1321</v>
@@ -5504,13 +5540,13 @@
         <v>1420891</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="M73" s="7">
         <v>2520</v>
@@ -5519,13 +5555,13 @@
         <v>2694097</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5540,13 +5576,13 @@
         <v>504784</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>300</v>
+        <v>482</v>
       </c>
       <c r="H74" s="7">
         <v>581</v>
@@ -5555,13 +5591,13 @@
         <v>618051</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="M74" s="7">
         <v>1055</v>
@@ -5570,13 +5606,13 @@
         <v>1122836</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>261</v>
+        <v>486</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>474</v>
+        <v>77</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5632,7 +5668,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
